--- a/public/plantillas/Alumnos_Pregrado_Plantilla_Carga_Datos.xlsx
+++ b/public/plantillas/Alumnos_Pregrado_Plantilla_Carga_Datos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="264">
   <si>
     <t>N°</t>
   </si>
@@ -629,12 +629,6 @@
 El código del Estado CIvil no corresponde a los valores posibles de ser consignados (1: Soltero (a), 2: Casado (a), 3: Viudo (a), ó 4: Divorsiado (a)). Corrija la Columna N, Fila n</t>
   </si>
   <si>
-    <t>Indicador si el Alumno sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Error en la Columna SUFRE DISCAPACIDAD:
 El código de Condición de Discapacidad no corresponde a los valores posibles de ser consignados. Consigne 1 para SI o 0 para NO. Corrija la Columna O, Fila n</t>
   </si>
@@ -656,12 +650,6 @@
 Los datos de identidad étnica se encuentran en blanco. Corrija la Columna Q, Fila n</t>
   </si>
   <si>
-    <t>Indicador si el Alumno cuenta con una Escala de Pago. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Error en la Columna ¿CUENTA CON ESCALA DE PAGO?:
 El código de si cuenta con Escala de Pago no corresponde a los valores posibles de ser consignados. Consigne 1 para SI ó 0 para NO. Corrija la Columna R, Fila n</t>
   </si>
@@ -701,12 +689,6 @@
   <si>
     <t>Error en la Columna PROMEDIO PONDERADO:
 El dato consignado de promedioponderado se encuentra en blanco o cuenta con un formato no válido, tiene que ser un valor numérico entre 0 a 20. Corrija la Columna V, Fila n</t>
-  </si>
-  <si>
-    <t>Indicador si el alumno realizó o no Movilidad Nacional. Valores:
-1: Si
-2: No
-Vacío: No</t>
   </si>
   <si>
     <t>Error en la Columna ¿REALIZÓ MOVILIDAD NACIONAL?:
@@ -743,12 +725,6 @@
     <t>Datos genericos o detallados de la Movilidad del Alumno</t>
   </si>
   <si>
-    <t>Indicador si el alumno realizó o no Movilidad Internacional. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Error en la Columna ¿REALIZÓ MOVILIDAD INTERNACIONAL?:
 El código de ¿Realizó Movilidad Internacional? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AA, Fila n</t>
   </si>
@@ -783,133 +759,160 @@
     <t>Detalles u observaciones de la Movilidad Internacional del Alumno, debe completarse de forma opcional solo si marcó a Realizó Movilidad Internacional (Valor 1)</t>
   </si>
   <si>
+    <t>Error en la Columna ¿ES ALUMNO EN RIESGO?:
+El código de ¿Es alumno en riesgo? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AE, Fila n</t>
+  </si>
+  <si>
+    <t>Número de cursos en formato numérico en los que el Alumno se encuentra en riesgo, debe completarse solo si marcó Es Alumno en Riesgo (Valor 1)</t>
+  </si>
+  <si>
+    <t>Obligatorio solo si marcó SI para Es Alumno en Riesgo</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Error en la Columna NRO DE CURSOS EN RIESGO:
+Si ha ingresado que el Alumno es Alumno En Riesgo, ingrese el número de cursos en que se encuentra en riesgo, no puede dejar el registro en blanco. Corrija la Columna AF, Fila n</t>
+  </si>
+  <si>
+    <t>Nombre de los cursos en los que el Alumno se encuentra en riesgo, debe completarse solo si marcó Es Alumno en Riesgo (Valor 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto alfanumérico </t>
+  </si>
+  <si>
+    <t>Texto alfanumérico separados por guiones. Ejemplo si marcó 2 cursos :</t>
+  </si>
+  <si>
+    <t>curso1 -- curso2</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Error en la Columna INGRESE LOS CURSOS EN RIESGO SEPARADOS POR (--):
+Si ha ingresado que el Alumno es Alumno En Riesgo, ingrese los cursos en el que el alumno se encuentre en riesgo separados por 2 guiones, la cantidad de cursos ingresados debe corresponder al número de cursos en riesgos indicados en la COLUMNA AF, no puede dejar el registro en blanco. Corrija la Columna AG, Fila n</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>Error en la Columna PAÍS DE PROCEDENCIA:
+El País de Procedencia ingresado se encuentran en blanco. Corrija la Columna AH, Fila n</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Error en la Columna DEPARTAMENTO DE PROCEDENCIA
+El Departamento de Procedencia ingresado se encuentran en blanco. Corrija la Columna AI, Fila n</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>Error en la Columna PROVINCIA DE PROCEDENCIA:
+La Provincia de Procedencia ingresado se encuentran en blanco. Corrija la Columna AJ, Fila n</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Error en la Columna DISTRITO DE PROCEDENCIA:
+El Distrito de Procedencia ingresado se encuentran en blanco. Corrija la Columna AK, Fila n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo Electrónico institucional del Alumno </t>
+  </si>
+  <si>
+    <t>Texto alfanumérico, formato correo nombre@unasam.edu.pe</t>
+  </si>
+  <si>
+    <t>juan@unasam.edu.pe</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Error en la Columna CORREO ELECTRÓNICO INSTITUCIONAL:
+El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AL, Fila n</t>
+  </si>
+  <si>
+    <t>Dirección de domicilio del Alumno en formato texto</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Error en la Columna DIRECCIÓN DEL ALUMNO:
+El Valor ingresado se encuentran en blanco. Corrija la Columna AM, Fila n</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
+El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AN, Fila n</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo Electrónico Personal del Alumno </t>
+  </si>
+  <si>
+    <t>Teléfono del Alumno</t>
+  </si>
+  <si>
+    <t>c_cursos_riesgo</t>
+  </si>
+  <si>
+    <t>Error en la Columna ESCUELA PROFESIONAL:  
+El Identificador de Escuela Profesional no corresponde a ninguna Escuela Profesional registrada en la base de datos. Corrija la Columna C, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador si el Alumno sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el Alumno cuenta con una Escala de Pago. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el alumno realizó o no Movilidad Nacional. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el alumno realizó o no Movilidad Internacional. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
     <t>Indicador si el alumno se encuentra en riesgo. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
   </si>
   <si>
-    <t>Error en la Columna ¿ES ALUMNO EN RIESGO?:
-El código de ¿Es alumno en riesgo? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AE, Fila n</t>
-  </si>
-  <si>
-    <t>Número de cursos en formato numérico en los que el Alumno se encuentra en riesgo, debe completarse solo si marcó Es Alumno en Riesgo (Valor 1)</t>
-  </si>
-  <si>
-    <t>Obligatorio solo si marcó SI para Es Alumno en Riesgo</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>Error en la Columna NRO DE CURSOS EN RIESGO:
-Si ha ingresado que el Alumno es Alumno En Riesgo, ingrese el número de cursos en que se encuentra en riesgo, no puede dejar el registro en blanco. Corrija la Columna AF, Fila n</t>
-  </si>
-  <si>
-    <t>Nombre de los cursos en los que el Alumno se encuentra en riesgo, debe completarse solo si marcó Es Alumno en Riesgo (Valor 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto alfanumérico </t>
-  </si>
-  <si>
-    <t>Texto alfanumérico separados por guiones. Ejemplo si marcó 2 cursos :</t>
-  </si>
-  <si>
-    <t>curso1 -- curso2</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>Error en la Columna INGRESE LOS CURSOS EN RIESGO SEPARADOS POR (--):
-Si ha ingresado que el Alumno es Alumno En Riesgo, ingrese los cursos en el que el alumno se encuentre en riesgo separados por 2 guiones, la cantidad de cursos ingresados debe corresponder al número de cursos en riesgos indicados en la COLUMNA AF, no puede dejar el registro en blanco. Corrija la Columna AG, Fila n</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>Error en la Columna PAÍS DE PROCEDENCIA:
-El País de Procedencia ingresado se encuentran en blanco. Corrija la Columna AH, Fila n</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>Error en la Columna DEPARTAMENTO DE PROCEDENCIA
-El Departamento de Procedencia ingresado se encuentran en blanco. Corrija la Columna AI, Fila n</t>
-  </si>
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
-    <t>Error en la Columna PROVINCIA DE PROCEDENCIA:
-La Provincia de Procedencia ingresado se encuentran en blanco. Corrija la Columna AJ, Fila n</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>Error en la Columna DISTRITO DE PROCEDENCIA:
-El Distrito de Procedencia ingresado se encuentran en blanco. Corrija la Columna AK, Fila n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo Electrónico institucional del Alumno </t>
-  </si>
-  <si>
-    <t>Texto alfanumérico, formato correo nombre@unasam.edu.pe</t>
-  </si>
-  <si>
-    <t>juan@unasam.edu.pe</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Error en la Columna CORREO ELECTRÓNICO INSTITUCIONAL:
-El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AL, Fila n</t>
-  </si>
-  <si>
-    <t>Dirección de domicilio del Alumno en formato texto</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>Error en la Columna DIRECCIÓN DEL ALUMNO:
-El Valor ingresado se encuentran en blanco. Corrija la Columna AM, Fila n</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
-El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AN, Fila n</t>
-  </si>
-  <si>
-    <t>AO</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo Electrónico Personal del Alumno </t>
-  </si>
-  <si>
-    <t>Teléfono del Alumno</t>
-  </si>
-  <si>
-    <t>c_cursos_riesgo</t>
-  </si>
-  <si>
-    <t>Error en la Columna ESCUELA PROFESIONAL:  
-El Identificador de Escuela Profesional no corresponde a ninguna Escuela Profesional registrada en la base de datos. Corrija la Columna C, Fila n</t>
+    <t>Nota: Se debe de llenar la Hoja1 del Excel con las siguientes instrucciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1002,6 +1005,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1101,7 +1111,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,10 +1187,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -1628,8 +1639,8 @@
       <c r="AF1" t="s">
         <v>153</v>
       </c>
-      <c r="AG1" s="28" t="s">
-        <v>261</v>
+      <c r="AG1" s="27" t="s">
+        <v>256</v>
       </c>
       <c r="AH1" t="s">
         <v>29</v>
@@ -1798,7 +1809,7 @@
   <dimension ref="A2:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,18 +1825,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>263</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1943,7 +1959,7 @@
         <v>55</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2271,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>56</v>
@@ -2289,7 +2305,7 @@
         <v>78</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -2300,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>88</v>
@@ -2318,7 +2334,7 @@
         <v>81</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2329,7 +2345,7 @@
         <v>158</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>51</v>
@@ -2341,13 +2357,13 @@
         <v>70</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>84</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="26" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2358,7 +2374,7 @@
         <v>122</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>51</v>
@@ -2376,7 +2392,7 @@
         <v>86</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2387,10 +2403,10 @@
         <v>124</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>67</v>
@@ -2399,13 +2415,13 @@
         <v>70</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>87</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2416,7 +2432,7 @@
         <v>126</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>51</v>
@@ -2434,7 +2450,7 @@
         <v>90</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2445,7 +2461,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>51</v>
@@ -2454,7 +2470,7 @@
         <v>91</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G28" s="19">
         <v>15</v>
@@ -2463,7 +2479,7 @@
         <v>93</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2474,7 +2490,7 @@
         <v>128</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>51</v>
@@ -2483,7 +2499,7 @@
         <v>91</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G29" s="19">
         <v>16</v>
@@ -2492,7 +2508,7 @@
         <v>96</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2503,7 +2519,7 @@
         <v>134</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>56</v>
@@ -2521,7 +2537,7 @@
         <v>99</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="121.5" x14ac:dyDescent="0.35">
@@ -2532,10 +2548,10 @@
         <v>136</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>48</v>
@@ -2550,7 +2566,7 @@
         <v>102</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -2561,10 +2577,10 @@
         <v>138</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>67</v>
@@ -2573,13 +2589,13 @@
         <v>70</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>105</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
@@ -2590,7 +2606,7 @@
         <v>139</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>47</v>
@@ -2602,7 +2618,7 @@
         <v>70</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>106</v>
@@ -2617,7 +2633,7 @@
         <v>141</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>56</v>
@@ -2635,7 +2651,7 @@
         <v>107</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="121.5" x14ac:dyDescent="0.35">
@@ -2646,10 +2662,10 @@
         <v>143</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>48</v>
@@ -2664,7 +2680,7 @@
         <v>109</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -2675,10 +2691,10 @@
         <v>144</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>67</v>
@@ -2687,13 +2703,13 @@
         <v>70</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>113</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
@@ -2704,7 +2720,7 @@
         <v>148</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>47</v>
@@ -2716,7 +2732,7 @@
         <v>70</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>114</v>
@@ -2731,7 +2747,7 @@
         <v>150</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>56</v>
@@ -2749,7 +2765,7 @@
         <v>116</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2760,10 +2776,10 @@
         <v>152</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>48</v>
@@ -2775,10 +2791,10 @@
         <v>2</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -2789,25 +2805,25 @@
         <v>162</v>
       </c>
       <c r="C40" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2833,10 +2849,10 @@
         <v>95</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2862,10 +2878,10 @@
         <v>98</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2891,10 +2907,10 @@
         <v>101</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2920,10 +2936,10 @@
         <v>104</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2934,7 +2950,7 @@
         <v>154</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>51</v>
@@ -2943,16 +2959,16 @@
         <v>110</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2963,7 +2979,7 @@
         <v>157</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>51</v>
@@ -2978,10 +2994,10 @@
         <v>108</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2992,7 +3008,7 @@
         <v>155</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>51</v>
@@ -3007,10 +3023,10 @@
         <v>112</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -3021,7 +3037,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>47</v>
@@ -3036,7 +3052,7 @@
         <v>945625285</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I48" s="12"/>
     </row>
@@ -3061,7 +3077,7 @@
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I49" s="12"/>
     </row>
@@ -3073,6 +3089,6 @@
     <hyperlink ref="G45" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>